--- a/testData/resetPasswordUserData.xlsx
+++ b/testData/resetPasswordUserData.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\srajendran\git\seleniumJavaRepo\InsuranceNow_v1.0\testData\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\srajendran\iNow_Reusalble\InsuranceNowReusable\testData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{802164D9-1C83-469F-960D-8AA0D0437A0F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3F6BAFF0-E6DF-465F-A67F-36EDEEC35E0C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-30828" yWindow="-1320" windowWidth="30936" windowHeight="16776" xr2:uid="{838B1716-2769-449B-83C2-A98D2BE273E4}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="15">
   <si>
     <t>First Name</t>
   </si>
@@ -70,43 +70,13 @@
   </si>
   <si>
     <t>AG1529</t>
-  </si>
-  <si>
-    <t>AG6718</t>
-  </si>
-  <si>
-    <t>Westwood Builder Agent</t>
-  </si>
-  <si>
-    <t>AG8134</t>
-  </si>
-  <si>
-    <t>Policy Agent Gold Or Diamond</t>
-  </si>
-  <si>
-    <t>AG8735</t>
-  </si>
-  <si>
-    <t>AG9077</t>
-  </si>
-  <si>
-    <t>Agent Limited</t>
-  </si>
-  <si>
-    <t>AG0005</t>
-  </si>
-  <si>
-    <t>Policy Standard Agent - Pinnacle</t>
-  </si>
-  <si>
-    <t>AG5959</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -133,6 +103,19 @@
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Aptos Narrow"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF172B4D"/>
+      <name val="Segoe UI"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color rgb="FF172B4D"/>
+      <name val="Segoe UI"/>
       <family val="2"/>
     </font>
   </fonts>
@@ -189,7 +172,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -204,6 +187,9 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -519,10 +505,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E4C1CEF3-1EB1-498B-ABFA-BD26A2AA477F}">
-  <dimension ref="A1:G10"/>
+  <dimension ref="A1:G84"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:G10"/>
+      <selection activeCell="I15" sqref="I15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="20.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -629,159 +615,735 @@
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A5" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="B5" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="C5" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="D5" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="E5" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="F5" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="G5" s="5" t="s">
-        <v>7</v>
-      </c>
+      <c r="A5" s="4"/>
+      <c r="B5" s="5"/>
+      <c r="C5" s="3"/>
+      <c r="D5" s="3"/>
+      <c r="E5" s="3"/>
+      <c r="F5" s="3"/>
+      <c r="G5" s="5"/>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A6" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="B6" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="C6" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="D6" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="E6" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="F6" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="G6" s="5" t="s">
-        <v>7</v>
-      </c>
+      <c r="A6" s="4"/>
+      <c r="B6" s="5"/>
+      <c r="C6" s="3"/>
+      <c r="D6" s="3"/>
+      <c r="E6" s="3"/>
+      <c r="F6" s="3"/>
+      <c r="G6" s="5"/>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A7" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="B7" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="C7" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="D7" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="E7" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="F7" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="G7" s="5" t="s">
-        <v>7</v>
-      </c>
+      <c r="A7" s="4"/>
+      <c r="B7" s="5"/>
+      <c r="C7" s="3"/>
+      <c r="D7" s="3"/>
+      <c r="E7" s="3"/>
+      <c r="F7" s="3"/>
+      <c r="G7" s="5"/>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A8" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="B8" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="C8" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="D8" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="E8" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="F8" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="G8" s="5" t="s">
-        <v>7</v>
-      </c>
+      <c r="A8" s="4"/>
+      <c r="B8" s="5"/>
+      <c r="C8" s="3"/>
+      <c r="D8" s="3"/>
+      <c r="E8" s="3"/>
+      <c r="F8" s="3"/>
+      <c r="G8" s="5"/>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A9" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="B9" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="C9" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="D9" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="E9" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="F9" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="G9" s="5" t="s">
-        <v>7</v>
-      </c>
+      <c r="A9" s="4"/>
+      <c r="B9" s="5"/>
+      <c r="C9" s="3"/>
+      <c r="D9" s="3"/>
+      <c r="E9" s="3"/>
+      <c r="F9" s="3"/>
+      <c r="G9" s="5"/>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A10" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="B10" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="C10" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="D10" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="E10" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="F10" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="G10" s="5" t="s">
-        <v>7</v>
-      </c>
+      <c r="A10" s="4"/>
+      <c r="B10" s="5"/>
+      <c r="C10" s="3"/>
+      <c r="D10" s="3"/>
+      <c r="E10" s="3"/>
+      <c r="F10" s="3"/>
+      <c r="G10" s="5"/>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A11" s="4"/>
+      <c r="B11" s="5"/>
+      <c r="C11" s="3"/>
+      <c r="D11" s="3"/>
+      <c r="E11" s="3"/>
+      <c r="F11" s="3"/>
+      <c r="G11" s="5"/>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A12" s="4"/>
+      <c r="B12" s="5"/>
+      <c r="C12" s="3"/>
+      <c r="D12" s="3"/>
+      <c r="E12" s="3"/>
+      <c r="F12" s="3"/>
+      <c r="G12" s="5"/>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A13" s="4"/>
+      <c r="B13" s="5"/>
+      <c r="C13" s="3"/>
+      <c r="D13" s="3"/>
+      <c r="E13" s="3"/>
+      <c r="F13" s="3"/>
+      <c r="G13" s="5"/>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A14" s="4"/>
+      <c r="B14" s="5"/>
+      <c r="C14" s="3"/>
+      <c r="D14" s="3"/>
+      <c r="E14" s="3"/>
+      <c r="F14" s="3"/>
+      <c r="G14" s="5"/>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A15" s="4"/>
+      <c r="B15" s="5"/>
+      <c r="C15" s="3"/>
+      <c r="D15" s="3"/>
+      <c r="E15" s="3"/>
+      <c r="F15" s="3"/>
+      <c r="G15" s="5"/>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A16" s="4"/>
+      <c r="B16" s="5"/>
+      <c r="C16" s="3"/>
+      <c r="D16" s="3"/>
+      <c r="E16" s="3"/>
+      <c r="F16" s="3"/>
+      <c r="G16" s="5"/>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A17" s="4"/>
+      <c r="B17" s="5"/>
+      <c r="C17" s="3"/>
+      <c r="D17" s="3"/>
+      <c r="E17" s="3"/>
+      <c r="F17" s="3"/>
+      <c r="G17" s="5"/>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A18" s="4"/>
+      <c r="B18" s="5"/>
+      <c r="C18" s="3"/>
+      <c r="D18" s="3"/>
+      <c r="E18" s="3"/>
+      <c r="F18" s="3"/>
+      <c r="G18" s="5"/>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A19" s="4"/>
+      <c r="B19" s="5"/>
+      <c r="C19" s="3"/>
+      <c r="D19" s="3"/>
+      <c r="E19" s="3"/>
+      <c r="F19" s="3"/>
+      <c r="G19" s="5"/>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A20" s="4"/>
+      <c r="B20" s="5"/>
+      <c r="C20" s="3"/>
+      <c r="D20" s="3"/>
+      <c r="E20" s="3"/>
+      <c r="F20" s="3"/>
+      <c r="G20" s="5"/>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A21" s="4"/>
+      <c r="B21" s="5"/>
+      <c r="C21" s="3"/>
+      <c r="D21" s="3"/>
+      <c r="E21" s="3"/>
+      <c r="F21" s="3"/>
+      <c r="G21" s="5"/>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A22" s="4"/>
+      <c r="B22" s="5"/>
+      <c r="C22" s="3"/>
+      <c r="D22" s="3"/>
+      <c r="E22" s="3"/>
+      <c r="F22" s="3"/>
+      <c r="G22" s="5"/>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A23" s="4"/>
+      <c r="B23" s="5"/>
+      <c r="C23" s="3"/>
+      <c r="D23" s="3"/>
+      <c r="E23" s="3"/>
+      <c r="F23" s="3"/>
+      <c r="G23" s="5"/>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A24" s="4"/>
+      <c r="B24" s="5"/>
+      <c r="C24" s="3"/>
+      <c r="D24" s="3"/>
+      <c r="E24" s="3"/>
+      <c r="F24" s="3"/>
+      <c r="G24" s="5"/>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A25" s="4"/>
+      <c r="B25" s="5"/>
+      <c r="C25" s="3"/>
+      <c r="D25" s="3"/>
+      <c r="E25" s="3"/>
+      <c r="F25" s="3"/>
+      <c r="G25" s="5"/>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A26" s="4"/>
+      <c r="B26" s="5"/>
+      <c r="C26" s="3"/>
+      <c r="D26" s="3"/>
+      <c r="E26" s="3"/>
+      <c r="F26" s="3"/>
+      <c r="G26" s="5"/>
+    </row>
+    <row r="27" spans="1:7" ht="15" x14ac:dyDescent="0.35">
+      <c r="A27" s="4"/>
+      <c r="B27" s="5"/>
+      <c r="C27" s="6"/>
+      <c r="D27" s="3"/>
+      <c r="E27" s="3"/>
+      <c r="F27" s="3"/>
+      <c r="G27" s="5"/>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A28" s="4"/>
+      <c r="B28" s="5"/>
+      <c r="C28" s="3"/>
+      <c r="D28" s="3"/>
+      <c r="E28" s="3"/>
+      <c r="F28" s="3"/>
+      <c r="G28" s="5"/>
+    </row>
+    <row r="29" spans="1:7" ht="15" x14ac:dyDescent="0.35">
+      <c r="A29" s="4"/>
+      <c r="B29" s="5"/>
+      <c r="C29" s="6"/>
+      <c r="D29" s="3"/>
+      <c r="E29" s="3"/>
+      <c r="F29" s="3"/>
+      <c r="G29" s="5"/>
+    </row>
+    <row r="30" spans="1:7" ht="15" x14ac:dyDescent="0.35">
+      <c r="A30" s="4"/>
+      <c r="B30" s="5"/>
+      <c r="C30" s="6"/>
+      <c r="D30" s="3"/>
+      <c r="E30" s="3"/>
+      <c r="F30" s="6"/>
+      <c r="G30" s="5"/>
+    </row>
+    <row r="31" spans="1:7" ht="15" x14ac:dyDescent="0.35">
+      <c r="A31" s="4"/>
+      <c r="B31" s="5"/>
+      <c r="C31" s="6"/>
+      <c r="D31" s="6"/>
+      <c r="E31" s="3"/>
+      <c r="F31" s="6"/>
+      <c r="G31" s="5"/>
+    </row>
+    <row r="32" spans="1:7" ht="15" x14ac:dyDescent="0.35">
+      <c r="A32" s="4"/>
+      <c r="B32" s="5"/>
+      <c r="C32" s="6"/>
+      <c r="D32" s="6"/>
+      <c r="E32" s="3"/>
+      <c r="F32" s="6"/>
+      <c r="G32" s="5"/>
+    </row>
+    <row r="33" spans="1:7" ht="15" x14ac:dyDescent="0.35">
+      <c r="A33" s="4"/>
+      <c r="B33" s="5"/>
+      <c r="C33" s="6"/>
+      <c r="D33" s="6"/>
+      <c r="E33" s="3"/>
+      <c r="F33" s="6"/>
+      <c r="G33" s="5"/>
+    </row>
+    <row r="34" spans="1:7" ht="15" x14ac:dyDescent="0.35">
+      <c r="A34" s="4"/>
+      <c r="B34" s="5"/>
+      <c r="C34" s="6"/>
+      <c r="D34" s="6"/>
+      <c r="E34" s="3"/>
+      <c r="F34" s="6"/>
+      <c r="G34" s="5"/>
+    </row>
+    <row r="35" spans="1:7" ht="15" x14ac:dyDescent="0.35">
+      <c r="A35" s="4"/>
+      <c r="B35" s="5"/>
+      <c r="C35" s="6"/>
+      <c r="D35" s="6"/>
+      <c r="E35" s="3"/>
+      <c r="F35" s="6"/>
+      <c r="G35" s="5"/>
+    </row>
+    <row r="36" spans="1:7" ht="15" x14ac:dyDescent="0.35">
+      <c r="A36" s="4"/>
+      <c r="B36" s="5"/>
+      <c r="C36" s="6"/>
+      <c r="D36" s="6"/>
+      <c r="E36" s="7"/>
+      <c r="F36" s="6"/>
+      <c r="G36" s="5"/>
+    </row>
+    <row r="37" spans="1:7" ht="15" x14ac:dyDescent="0.35">
+      <c r="A37" s="4"/>
+      <c r="B37" s="5"/>
+      <c r="C37" s="6"/>
+      <c r="D37" s="6"/>
+      <c r="E37" s="3"/>
+      <c r="F37" s="6"/>
+      <c r="G37" s="5"/>
+    </row>
+    <row r="38" spans="1:7" ht="15" x14ac:dyDescent="0.35">
+      <c r="A38" s="4"/>
+      <c r="B38" s="5"/>
+      <c r="C38" s="6"/>
+      <c r="D38" s="6"/>
+      <c r="E38" s="3"/>
+      <c r="F38" s="6"/>
+      <c r="G38" s="5"/>
+    </row>
+    <row r="39" spans="1:7" ht="15" x14ac:dyDescent="0.35">
+      <c r="A39" s="4"/>
+      <c r="B39" s="5"/>
+      <c r="C39" s="6"/>
+      <c r="D39" s="6"/>
+      <c r="E39" s="3"/>
+      <c r="F39" s="6"/>
+      <c r="G39" s="5"/>
+    </row>
+    <row r="40" spans="1:7" ht="15" x14ac:dyDescent="0.35">
+      <c r="A40" s="4"/>
+      <c r="B40" s="5"/>
+      <c r="C40" s="3"/>
+      <c r="D40" s="3"/>
+      <c r="E40" s="3"/>
+      <c r="F40" s="6"/>
+      <c r="G40" s="5"/>
+    </row>
+    <row r="41" spans="1:7" ht="15" x14ac:dyDescent="0.35">
+      <c r="A41" s="4"/>
+      <c r="B41" s="5"/>
+      <c r="C41" s="3"/>
+      <c r="D41" s="3"/>
+      <c r="E41" s="3"/>
+      <c r="F41" s="6"/>
+      <c r="G41" s="5"/>
+    </row>
+    <row r="42" spans="1:7" ht="15" x14ac:dyDescent="0.35">
+      <c r="A42" s="4"/>
+      <c r="B42" s="5"/>
+      <c r="C42" s="8"/>
+      <c r="D42" s="3"/>
+      <c r="E42" s="3"/>
+      <c r="F42" s="6"/>
+      <c r="G42" s="5"/>
+    </row>
+    <row r="43" spans="1:7" ht="15" x14ac:dyDescent="0.35">
+      <c r="A43" s="4"/>
+      <c r="B43" s="5"/>
+      <c r="C43" s="3"/>
+      <c r="D43" s="3"/>
+      <c r="E43" s="3"/>
+      <c r="F43" s="6"/>
+      <c r="G43" s="5"/>
+    </row>
+    <row r="44" spans="1:7" ht="15" x14ac:dyDescent="0.35">
+      <c r="A44" s="4"/>
+      <c r="B44" s="5"/>
+      <c r="C44" s="3"/>
+      <c r="D44" s="3"/>
+      <c r="E44" s="3"/>
+      <c r="F44" s="6"/>
+      <c r="G44" s="5"/>
+    </row>
+    <row r="45" spans="1:7" ht="15" x14ac:dyDescent="0.35">
+      <c r="A45" s="4"/>
+      <c r="B45" s="5"/>
+      <c r="C45" s="6"/>
+      <c r="D45" s="6"/>
+      <c r="E45" s="3"/>
+      <c r="F45" s="6"/>
+      <c r="G45" s="5"/>
+    </row>
+    <row r="46" spans="1:7" ht="15" x14ac:dyDescent="0.35">
+      <c r="A46" s="4"/>
+      <c r="B46" s="5"/>
+      <c r="C46" s="6"/>
+      <c r="D46" s="6"/>
+      <c r="E46" s="3"/>
+      <c r="F46" s="6"/>
+      <c r="G46" s="5"/>
+    </row>
+    <row r="47" spans="1:7" ht="15" x14ac:dyDescent="0.35">
+      <c r="A47" s="4"/>
+      <c r="B47" s="5"/>
+      <c r="C47" s="6"/>
+      <c r="D47" s="6"/>
+      <c r="E47" s="3"/>
+      <c r="F47" s="6"/>
+      <c r="G47" s="5"/>
+    </row>
+    <row r="48" spans="1:7" ht="15" x14ac:dyDescent="0.35">
+      <c r="A48" s="4"/>
+      <c r="B48" s="5"/>
+      <c r="C48" s="6"/>
+      <c r="D48" s="6"/>
+      <c r="E48" s="3"/>
+      <c r="F48" s="6"/>
+      <c r="G48" s="5"/>
+    </row>
+    <row r="49" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A49" s="4"/>
+      <c r="B49" s="5"/>
+      <c r="C49" s="3"/>
+      <c r="D49" s="3"/>
+      <c r="E49" s="3"/>
+      <c r="F49" s="3"/>
+      <c r="G49" s="5"/>
+    </row>
+    <row r="50" spans="1:7" ht="15" x14ac:dyDescent="0.35">
+      <c r="A50" s="4"/>
+      <c r="B50" s="5"/>
+      <c r="C50" s="6"/>
+      <c r="D50" s="6"/>
+      <c r="E50" s="3"/>
+      <c r="F50" s="6"/>
+      <c r="G50" s="5"/>
+    </row>
+    <row r="51" spans="1:7" ht="15" x14ac:dyDescent="0.35">
+      <c r="A51" s="4"/>
+      <c r="B51" s="5"/>
+      <c r="C51" s="6"/>
+      <c r="D51" s="6"/>
+      <c r="E51" s="3"/>
+      <c r="F51" s="6"/>
+      <c r="G51" s="5"/>
+    </row>
+    <row r="52" spans="1:7" ht="15" x14ac:dyDescent="0.35">
+      <c r="A52" s="4"/>
+      <c r="B52" s="5"/>
+      <c r="C52" s="6"/>
+      <c r="D52" s="6"/>
+      <c r="E52" s="3"/>
+      <c r="F52" s="6"/>
+      <c r="G52" s="5"/>
+    </row>
+    <row r="53" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A53" s="4"/>
+      <c r="B53" s="5"/>
+      <c r="C53" s="3"/>
+      <c r="D53" s="3"/>
+      <c r="E53" s="3"/>
+      <c r="F53" s="3"/>
+      <c r="G53" s="5"/>
+    </row>
+    <row r="54" spans="1:7" ht="15" x14ac:dyDescent="0.35">
+      <c r="A54" s="4"/>
+      <c r="B54" s="5"/>
+      <c r="C54" s="3"/>
+      <c r="D54" s="3"/>
+      <c r="E54" s="3"/>
+      <c r="F54" s="6"/>
+      <c r="G54" s="5"/>
+    </row>
+    <row r="55" spans="1:7" ht="15" x14ac:dyDescent="0.35">
+      <c r="A55" s="4"/>
+      <c r="B55" s="5"/>
+      <c r="C55" s="6"/>
+      <c r="D55" s="6"/>
+      <c r="E55" s="3"/>
+      <c r="F55" s="6"/>
+      <c r="G55" s="5"/>
+    </row>
+    <row r="56" spans="1:7" ht="15" x14ac:dyDescent="0.35">
+      <c r="A56" s="4"/>
+      <c r="B56" s="5"/>
+      <c r="C56" s="6"/>
+      <c r="D56" s="6"/>
+      <c r="E56" s="3"/>
+      <c r="F56" s="6"/>
+      <c r="G56" s="5"/>
+    </row>
+    <row r="57" spans="1:7" ht="15" x14ac:dyDescent="0.35">
+      <c r="A57" s="4"/>
+      <c r="B57" s="5"/>
+      <c r="C57" s="6"/>
+      <c r="D57" s="6"/>
+      <c r="E57" s="3"/>
+      <c r="F57" s="6"/>
+      <c r="G57" s="5"/>
+    </row>
+    <row r="58" spans="1:7" ht="15" x14ac:dyDescent="0.35">
+      <c r="A58" s="4"/>
+      <c r="B58" s="5"/>
+      <c r="C58" s="6"/>
+      <c r="D58" s="6"/>
+      <c r="E58" s="3"/>
+      <c r="F58" s="6"/>
+      <c r="G58" s="5"/>
+    </row>
+    <row r="59" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A59" s="4"/>
+      <c r="B59" s="5"/>
+      <c r="C59" s="3"/>
+      <c r="D59" s="3"/>
+      <c r="E59" s="3"/>
+      <c r="F59" s="3"/>
+      <c r="G59" s="5"/>
+    </row>
+    <row r="60" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A60" s="4"/>
+      <c r="B60" s="5"/>
+      <c r="C60" s="3"/>
+      <c r="D60" s="3"/>
+      <c r="E60" s="3"/>
+      <c r="F60" s="3"/>
+      <c r="G60" s="5"/>
+    </row>
+    <row r="61" spans="1:7" ht="15" x14ac:dyDescent="0.35">
+      <c r="A61" s="4"/>
+      <c r="B61" s="5"/>
+      <c r="C61" s="3"/>
+      <c r="D61" s="3"/>
+      <c r="E61" s="3"/>
+      <c r="F61" s="6"/>
+      <c r="G61" s="5"/>
+    </row>
+    <row r="62" spans="1:7" ht="15" x14ac:dyDescent="0.35">
+      <c r="A62" s="4"/>
+      <c r="B62" s="5"/>
+      <c r="C62" s="6"/>
+      <c r="D62" s="6"/>
+      <c r="E62" s="3"/>
+      <c r="F62" s="3"/>
+      <c r="G62" s="5"/>
+    </row>
+    <row r="63" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A63" s="4"/>
+      <c r="B63" s="5"/>
+      <c r="C63" s="3"/>
+      <c r="D63" s="3"/>
+      <c r="E63" s="3"/>
+      <c r="F63" s="3"/>
+      <c r="G63" s="5"/>
+    </row>
+    <row r="64" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A64" s="4"/>
+      <c r="B64" s="5"/>
+      <c r="C64" s="3"/>
+      <c r="D64" s="3"/>
+      <c r="E64" s="3"/>
+      <c r="F64" s="3"/>
+      <c r="G64" s="5"/>
+    </row>
+    <row r="65" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A65" s="4"/>
+      <c r="B65" s="5"/>
+      <c r="C65" s="3"/>
+      <c r="D65" s="3"/>
+      <c r="E65" s="3"/>
+      <c r="F65" s="3"/>
+      <c r="G65" s="5"/>
+    </row>
+    <row r="66" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A66" s="4"/>
+      <c r="B66" s="5"/>
+      <c r="C66" s="3"/>
+      <c r="D66" s="3"/>
+      <c r="E66" s="3"/>
+      <c r="F66" s="3"/>
+      <c r="G66" s="5"/>
+    </row>
+    <row r="67" spans="1:7" ht="15" x14ac:dyDescent="0.35">
+      <c r="A67" s="4"/>
+      <c r="B67" s="5"/>
+      <c r="C67" s="6"/>
+      <c r="D67" s="6"/>
+      <c r="E67" s="3"/>
+      <c r="F67" s="6"/>
+      <c r="G67" s="5"/>
+    </row>
+    <row r="68" spans="1:7" ht="15" x14ac:dyDescent="0.35">
+      <c r="A68" s="4"/>
+      <c r="B68" s="5"/>
+      <c r="C68" s="6"/>
+      <c r="D68" s="6"/>
+      <c r="E68" s="3"/>
+      <c r="F68" s="6"/>
+      <c r="G68" s="5"/>
+    </row>
+    <row r="69" spans="1:7" ht="15" x14ac:dyDescent="0.35">
+      <c r="A69" s="4"/>
+      <c r="B69" s="5"/>
+      <c r="C69" s="6"/>
+      <c r="D69" s="6"/>
+      <c r="E69" s="3"/>
+      <c r="F69" s="6"/>
+      <c r="G69" s="5"/>
+    </row>
+    <row r="70" spans="1:7" ht="15" x14ac:dyDescent="0.35">
+      <c r="A70" s="4"/>
+      <c r="B70" s="5"/>
+      <c r="C70" s="6"/>
+      <c r="D70" s="6"/>
+      <c r="E70" s="3"/>
+      <c r="F70" s="6"/>
+      <c r="G70" s="5"/>
+    </row>
+    <row r="71" spans="1:7" ht="15" x14ac:dyDescent="0.35">
+      <c r="A71" s="4"/>
+      <c r="B71" s="5"/>
+      <c r="C71" s="6"/>
+      <c r="D71" s="6"/>
+      <c r="E71" s="3"/>
+      <c r="F71" s="6"/>
+      <c r="G71" s="5"/>
+    </row>
+    <row r="72" spans="1:7" ht="15" x14ac:dyDescent="0.35">
+      <c r="A72" s="4"/>
+      <c r="B72" s="5"/>
+      <c r="C72" s="6"/>
+      <c r="D72" s="6"/>
+      <c r="E72" s="3"/>
+      <c r="F72" s="6"/>
+      <c r="G72" s="5"/>
+    </row>
+    <row r="73" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A73" s="4"/>
+      <c r="B73" s="5"/>
+      <c r="C73" s="3"/>
+      <c r="D73" s="3"/>
+      <c r="E73" s="3"/>
+      <c r="F73" s="3"/>
+      <c r="G73" s="5"/>
+    </row>
+    <row r="74" spans="1:7" ht="15" x14ac:dyDescent="0.35">
+      <c r="A74" s="4"/>
+      <c r="B74" s="5"/>
+      <c r="C74" s="3"/>
+      <c r="D74" s="3"/>
+      <c r="E74" s="3"/>
+      <c r="F74" s="6"/>
+      <c r="G74" s="5"/>
+    </row>
+    <row r="75" spans="1:7" ht="15" x14ac:dyDescent="0.35">
+      <c r="A75" s="4"/>
+      <c r="B75" s="5"/>
+      <c r="C75" s="3"/>
+      <c r="D75" s="3"/>
+      <c r="E75" s="3"/>
+      <c r="F75" s="6"/>
+      <c r="G75" s="5"/>
+    </row>
+    <row r="76" spans="1:7" ht="15" x14ac:dyDescent="0.35">
+      <c r="A76" s="4"/>
+      <c r="B76" s="5"/>
+      <c r="C76" s="6"/>
+      <c r="D76" s="3"/>
+      <c r="E76" s="3"/>
+      <c r="F76" s="6"/>
+      <c r="G76" s="5"/>
+    </row>
+    <row r="77" spans="1:7" ht="15" x14ac:dyDescent="0.35">
+      <c r="A77" s="4"/>
+      <c r="B77" s="5"/>
+      <c r="C77" s="6"/>
+      <c r="D77" s="6"/>
+      <c r="E77" s="3"/>
+      <c r="F77" s="6"/>
+      <c r="G77" s="5"/>
+    </row>
+    <row r="78" spans="1:7" ht="15" x14ac:dyDescent="0.35">
+      <c r="A78" s="4"/>
+      <c r="B78" s="5"/>
+      <c r="C78" s="6"/>
+      <c r="D78" s="3"/>
+      <c r="E78" s="3"/>
+      <c r="F78" s="6"/>
+      <c r="G78" s="5"/>
+    </row>
+    <row r="79" spans="1:7" ht="15" x14ac:dyDescent="0.35">
+      <c r="A79" s="4"/>
+      <c r="B79" s="5"/>
+      <c r="C79" s="6"/>
+      <c r="D79" s="3"/>
+      <c r="E79" s="3"/>
+      <c r="F79" s="6"/>
+      <c r="G79" s="5"/>
+    </row>
+    <row r="80" spans="1:7" ht="15" x14ac:dyDescent="0.35">
+      <c r="A80" s="4"/>
+      <c r="B80" s="5"/>
+      <c r="C80" s="6"/>
+      <c r="D80" s="3"/>
+      <c r="E80" s="3"/>
+      <c r="F80" s="6"/>
+      <c r="G80" s="5"/>
+    </row>
+    <row r="81" spans="1:7" ht="15" x14ac:dyDescent="0.35">
+      <c r="A81" s="4"/>
+      <c r="B81" s="5"/>
+      <c r="C81" s="6"/>
+      <c r="D81" s="3"/>
+      <c r="E81" s="3"/>
+      <c r="F81" s="6"/>
+      <c r="G81" s="5"/>
+    </row>
+    <row r="82" spans="1:7" ht="15" x14ac:dyDescent="0.35">
+      <c r="A82" s="4"/>
+      <c r="B82" s="5"/>
+      <c r="C82" s="6"/>
+      <c r="D82" s="6"/>
+      <c r="E82" s="3"/>
+      <c r="F82" s="6"/>
+      <c r="G82" s="5"/>
+    </row>
+    <row r="83" spans="1:7" ht="15" x14ac:dyDescent="0.35">
+      <c r="A83" s="4"/>
+      <c r="B83" s="5"/>
+      <c r="C83" s="6"/>
+      <c r="D83" s="6"/>
+      <c r="E83" s="3"/>
+      <c r="F83" s="6"/>
+      <c r="G83" s="5"/>
+    </row>
+    <row r="84" spans="1:7" ht="15" x14ac:dyDescent="0.35">
+      <c r="A84" s="4"/>
+      <c r="B84" s="5"/>
+      <c r="C84" s="6"/>
+      <c r="D84" s="3"/>
+      <c r="E84" s="3"/>
+      <c r="F84" s="6"/>
+      <c r="G84" s="5"/>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="G2" r:id="rId1" xr:uid="{89B9CDF9-18F2-4AA6-BA62-E2DA2DC71286}"/>
-    <hyperlink ref="E2" r:id="rId2" xr:uid="{D8AC7B8C-A9AD-4C89-B676-0A74A6DF17F2}"/>
-    <hyperlink ref="B2" r:id="rId3" xr:uid="{A80DE498-B97C-42F1-AB9D-8CDF9A68B676}"/>
-    <hyperlink ref="B3" r:id="rId4" xr:uid="{E0A19B7F-C055-4225-9ED7-E1346B8CCC60}"/>
-    <hyperlink ref="B4" r:id="rId5" xr:uid="{C6602313-587F-4E75-85A8-13A78111EEE6}"/>
-    <hyperlink ref="B5" r:id="rId6" xr:uid="{2B6CDDA7-1338-4F78-827F-CDB21CB7D020}"/>
-    <hyperlink ref="B6" r:id="rId7" xr:uid="{C79DEFEF-DF57-4386-BE87-874A0BCA3E7E}"/>
-    <hyperlink ref="B7" r:id="rId8" xr:uid="{CE25D042-AE1D-441D-B1C5-376070AD1529}"/>
-    <hyperlink ref="B8" r:id="rId9" xr:uid="{BCEABFBE-CA54-4F0D-A914-A68DBC1A4936}"/>
-    <hyperlink ref="B9" r:id="rId10" xr:uid="{42CA142E-4240-485A-ADAA-1CD88009BBB9}"/>
-    <hyperlink ref="B10" r:id="rId11" xr:uid="{F86B5E5F-6BD8-41E0-8B68-0999CD192014}"/>
-    <hyperlink ref="G3:G10" r:id="rId12" display="Jan@2025!" xr:uid="{511A3405-F869-4FD4-821E-06C7664700DD}"/>
+    <hyperlink ref="G2" r:id="rId1" xr:uid="{AB61326B-791D-455B-B7B3-30797A4650D1}"/>
+    <hyperlink ref="E2" r:id="rId2" xr:uid="{2B741D9F-4172-4211-88CF-F6847F632014}"/>
+    <hyperlink ref="B2" r:id="rId3" xr:uid="{CA32AB00-EF45-426F-8EE7-8C469E099BEC}"/>
+    <hyperlink ref="B3" r:id="rId4" xr:uid="{98DED8C4-0568-442A-98B4-E776EE660C2F}"/>
+    <hyperlink ref="B4" r:id="rId5" xr:uid="{C33E199A-1A3E-4E4A-B929-8D158839BE3E}"/>
+    <hyperlink ref="G3:G83" r:id="rId6" display="Jan@2025!" xr:uid="{CDD71729-9742-43F1-A284-D4072ADDE8BD}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId13"/>
+  <pageSetup orientation="portrait" r:id="rId7"/>
 </worksheet>
 </file>